--- a/genevent3ml.xlsx
+++ b/genevent3ml.xlsx
@@ -23,54 +23,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>0-root 96</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>0-root 100</t>
   </si>
   <si>
     <t>1-史莱姆</t>
   </si>
   <si>
-    <t>2-史莱姆</t>
-  </si>
-  <si>
-    <t>3-小血瓶</t>
-  </si>
-  <si>
-    <t>6-血瓶</t>
-  </si>
-  <si>
-    <t>7-骷髅射手</t>
-  </si>
-  <si>
-    <t>4-骷髅战士</t>
-  </si>
-  <si>
-    <t>5-小血瓶</t>
-  </si>
-  <si>
-    <t>0-root 77</t>
-  </si>
-  <si>
-    <t>0-root 56</t>
-  </si>
-  <si>
-    <t>0-root 22</t>
-  </si>
-  <si>
-    <t>0-root 97</t>
-  </si>
-  <si>
-    <t>0-root 35</t>
-  </si>
-  <si>
-    <t>0-root 98</t>
-  </si>
-  <si>
-    <t>0-root 27</t>
-  </si>
-  <si>
-    <t>0-root 28</t>
+    <t>2-小血瓶</t>
+  </si>
+  <si>
+    <t>6-史莱姆</t>
+  </si>
+  <si>
+    <t>7-血瓶</t>
+  </si>
+  <si>
+    <t>9-骷髅战士</t>
+  </si>
+  <si>
+    <t>10-骷髅战士</t>
+  </si>
+  <si>
+    <t>11-大血瓶</t>
+  </si>
+  <si>
+    <t>3-史莱姆</t>
+  </si>
+  <si>
+    <t>4-小血瓶</t>
+  </si>
+  <si>
+    <t>12-骷髅射手</t>
+  </si>
+  <si>
+    <t>5-骷髅战士</t>
+  </si>
+  <si>
+    <t>8-小血瓶</t>
   </si>
 </sst>
 </file>
@@ -381,36 +372,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
+      <c r="F4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -426,36 +430,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+    <row r="6">
+      <c r="C6" t="s">
         <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -478,31 +501,44 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -518,34 +554,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
+      <c r="D3" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -561,38 +614,51 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -608,15 +674,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -624,20 +690,39 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -653,15 +738,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -669,20 +754,43 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>4</v>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -698,36 +806,57 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -743,34 +872,55 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="6">
+      <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
-      <c r="C4" t="s">
-        <v>5</v>
+    <row r="7">
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -786,36 +936,49 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4">
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="s">
-        <v>5</v>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/genevent3ml.xlsx
+++ b/genevent3ml.xlsx
@@ -23,45 +23,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>0-root 100</t>
   </si>
   <si>
-    <t>1-史莱姆</t>
-  </si>
-  <si>
-    <t>2-小血瓶</t>
+    <t>0-骷髅战士</t>
+  </si>
+  <si>
+    <t>1-小血瓶</t>
+  </si>
+  <si>
+    <t>2-史莱姆</t>
+  </si>
+  <si>
+    <t>3-小血瓶</t>
+  </si>
+  <si>
+    <t>4-血瓶</t>
+  </si>
+  <si>
+    <t>11-骷髅射手</t>
+  </si>
+  <si>
+    <t>12-HP+5属性书</t>
+  </si>
+  <si>
+    <t>15-血瓶</t>
+  </si>
+  <si>
+    <t>13-铁剑</t>
+  </si>
+  <si>
+    <t>14-血瓶</t>
+  </si>
+  <si>
+    <t>5-史莱姆</t>
+  </si>
+  <si>
+    <t>9-小血瓶</t>
+  </si>
+  <si>
+    <t>8-骷髅战士</t>
+  </si>
+  <si>
+    <t>10-血瓶</t>
+  </si>
+  <si>
+    <t>16-甲壳虫</t>
+  </si>
+  <si>
+    <t>17-史莱姆</t>
+  </si>
+  <si>
+    <t>18-血瓶</t>
   </si>
   <si>
     <t>6-史莱姆</t>
   </si>
   <si>
-    <t>7-血瓶</t>
-  </si>
-  <si>
-    <t>9-骷髅战士</t>
-  </si>
-  <si>
-    <t>10-骷髅战士</t>
-  </si>
-  <si>
-    <t>11-大血瓶</t>
-  </si>
-  <si>
-    <t>3-史莱姆</t>
-  </si>
-  <si>
-    <t>4-小血瓶</t>
-  </si>
-  <si>
-    <t>12-骷髅射手</t>
-  </si>
-  <si>
-    <t>5-骷髅战士</t>
-  </si>
-  <si>
-    <t>8-小血瓶</t>
+    <t>7-小血瓶</t>
+  </si>
+  <si>
+    <t>19-史莱姆</t>
+  </si>
+  <si>
+    <t>20-小血瓶</t>
+  </si>
+  <si>
+    <t>24-毒蜂</t>
+  </si>
+  <si>
+    <t>27-小血瓶</t>
+  </si>
+  <si>
+    <t>21-史莱姆</t>
+  </si>
+  <si>
+    <t>26-小血瓶</t>
+  </si>
+  <si>
+    <t>33-骷髅战士</t>
+  </si>
+  <si>
+    <t>34-大血瓶</t>
+  </si>
+  <si>
+    <t>23-骷髅战士</t>
+  </si>
+  <si>
+    <t>29-甲壳虫</t>
+  </si>
+  <si>
+    <t>30-小血瓶</t>
+  </si>
+  <si>
+    <t>32-毒蜂</t>
+  </si>
+  <si>
+    <t>35-金色史莱姆</t>
+  </si>
+  <si>
+    <t>22-甲壳虫</t>
+  </si>
+  <si>
+    <t>25-小血瓶</t>
+  </si>
+  <si>
+    <t>28-骷髅战士</t>
+  </si>
+  <si>
+    <t>31-血瓶</t>
+  </si>
+  <si>
+    <t>0-root 99</t>
+  </si>
+  <si>
+    <t>0-root 97</t>
   </si>
 </sst>
 </file>
@@ -379,42 +457,120 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
+      <c r="O2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -430,55 +586,129 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="s">
-        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7">
-      <c r="C7" t="s">
-        <v>12</v>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -501,8 +731,11 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -512,33 +745,108 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="s">
-        <v>7</v>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -561,44 +869,120 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -621,13 +1005,7 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="O2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -635,30 +1013,116 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="s">
-        <v>7</v>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="F9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -681,48 +1145,122 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="s">
-        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" t="s">
-        <v>7</v>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -745,52 +1283,124 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="M4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="I7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="s">
-        <v>6</v>
+      <c r="K7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" t="s">
-        <v>7</v>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="s">
-        <v>10</v>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="L9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -806,57 +1416,129 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="s">
-        <v>5</v>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7">
-      <c r="C7" t="s">
-        <v>6</v>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8">
-      <c r="C8" t="s">
-        <v>7</v>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -879,48 +1561,124 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="s">
-        <v>3</v>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="K9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -943,11 +1701,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -955,30 +1716,105 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
+      <c r="N6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
